--- a/src/main/resources/templates/exam_template.xlsx
+++ b/src/main/resources/templates/exam_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\java\resources\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B53801E-091C-4705-AEAE-87264C76AF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076565C5-DD40-46A1-B86D-C0C3635D3F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="3225" windowWidth="29835" windowHeight="13260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考试信息" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="129">
   <si>
     <t>考试名称</t>
   </si>
@@ -94,9 +94,6 @@
     <t>难度等级</t>
   </si>
   <si>
-    <t>关联知识点</t>
-  </si>
-  <si>
     <t>随机规则</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>双极型晶体管,工作区域</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>A,B,C,D</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>特征频率,晶体管参数</t>
   </si>
   <si>
@@ -347,9 +338,6 @@
   </si>
   <si>
     <t>晶体管利用输入信号控制输出电流...通过基极电流控制集电极电流...</t>
-  </si>
-  <si>
-    <t>晶体管,放大原理</t>
   </si>
   <si>
     <t>分析晶体管开关特性</t>
@@ -416,6 +404,30 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该规则出题数（若同一规则数量不同取最大值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶体管,放大原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联知识点（英文逗号[,]分割）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双极型晶体管,工作区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,7 +821,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.375" style="1" customWidth="1"/>
     <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="30.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.375" style="1" customWidth="1"/>
@@ -841,19 +853,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1010,7 +1022,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1022,7 +1034,7 @@
     <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="22.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1055,141 +1067,141 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -1200,34 +1212,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -1238,34 +1250,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1">
         <v>2</v>
@@ -1276,34 +1288,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
@@ -1314,34 +1326,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -1354,7 +1366,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A7:F7 A5:H5 A6:H6 A4:H4 A2:H2 J2 A3:H3 J3 J4 J5 J6 J7 H7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 A7:F7 A5:H5 A6:H6 A4:H4 A2:H2 J2 A3:H3 J4 J5 J6 J7 H7 K1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1364,15 +1376,16 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="24.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="33.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -1395,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>21</v>
@@ -1404,236 +1417,236 @@
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>2</v>
+      <c r="L4" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
-        <v>2</v>
+      <c r="L5" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A5:H5 B4:H4 B3:H3 B2:H2 J2 J3 J4 J5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1 A5:G5 B4:G4 B3:G3 B2:G2 J2 J3 J4 J5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1643,17 +1656,19 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="35.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="26.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="36" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1664,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -1673,138 +1688,138 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1 B5:C5 B4:C4 B3:C3 B2:C2 F3 F4 F5" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 B5:C5 B4:C4 B3:C3 B2:C2 F3 F5 G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>